--- a/data/trans_dic/P36$cafe-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,54; 91,37</t>
+          <t>85,75; 91,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,32; 86,44</t>
+          <t>79,74; 86,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,69; 87,95</t>
+          <t>80,49; 88,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,64; 87,3</t>
+          <t>80,82; 86,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,66; 88,63</t>
+          <t>81,93; 88,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,26; 89,29</t>
+          <t>81,87; 88,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>84,52; 88,73</t>
+          <t>84,11; 88,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,13; 86,97</t>
+          <t>81,86; 86,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>82,68; 87,61</t>
+          <t>82,71; 87,76</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,85; 91,38</t>
+          <t>86,85; 91,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,07; 90,23</t>
+          <t>85,03; 90,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,22; 89,82</t>
+          <t>83,95; 89,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,9; 91,14</t>
+          <t>86,1; 91,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,58; 93,52</t>
+          <t>88,15; 93,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,2; 93,05</t>
+          <t>88,21; 93,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,35; 90,58</t>
+          <t>87,17; 90,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,38; 91,06</t>
+          <t>87,55; 91,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,05; 90,73</t>
+          <t>87,09; 90,72</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,34; 94,44</t>
+          <t>90,57; 94,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,15; 94,49</t>
+          <t>90,29; 94,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,78; 94,03</t>
+          <t>89,83; 94,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,71; 94,75</t>
+          <t>90,63; 94,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,15; 96,61</t>
+          <t>93,33; 96,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,22; 95,23</t>
+          <t>91,23; 95,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,14; 94,06</t>
+          <t>91,2; 94,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,38; 94,99</t>
+          <t>92,49; 95,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,09; 94,16</t>
+          <t>91,2; 94,05</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,62; 94,72</t>
+          <t>89,78; 94,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,23; 96,17</t>
+          <t>91,84; 96,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,26; 93,84</t>
+          <t>89,28; 93,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,28; 94,78</t>
+          <t>90,12; 94,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,92; 97,57</t>
+          <t>94,19; 97,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,87; 96,38</t>
+          <t>92,84; 96,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,88; 94,23</t>
+          <t>90,68; 94,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,81; 96,51</t>
+          <t>93,74; 96,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,67; 94,58</t>
+          <t>91,79; 94,66</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,52; 94,95</t>
+          <t>89,71; 94,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,4; 96,58</t>
+          <t>91,48; 96,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,95; 94,44</t>
+          <t>89,28; 94,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,56; 95,55</t>
+          <t>90,37; 95,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,82; 97,08</t>
+          <t>92,74; 97,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,67; 97,64</t>
+          <t>93,96; 97,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,94; 94,62</t>
+          <t>90,94; 94,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,06; 96,27</t>
+          <t>93,21; 96,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,12; 95,64</t>
+          <t>92,56; 95,66</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,97; 97,03</t>
+          <t>92,05; 97,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,29; 97,44</t>
+          <t>92,09; 97,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,84; 96,76</t>
+          <t>91,66; 96,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,19; 96,67</t>
+          <t>91,93; 96,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,47; 97,51</t>
+          <t>93,31; 97,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,07; 97,36</t>
+          <t>93,12; 97,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,16; 96,51</t>
+          <t>93,13; 96,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>93,66; 96,9</t>
+          <t>93,81; 97,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,2; 96,46</t>
+          <t>93,42; 96,53</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,24; 95,91</t>
+          <t>89,36; 96,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,5; 98,26</t>
+          <t>92,41; 98,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92,79; 97,57</t>
+          <t>92,46; 97,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,81; 98,69</t>
+          <t>94,61; 98,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,47; 97,68</t>
+          <t>93,39; 97,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,28; 99,4</t>
+          <t>96,0; 99,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,48; 97,17</t>
+          <t>93,59; 97,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>93,96; 97,38</t>
+          <t>94,16; 97,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,55; 98,3</t>
+          <t>95,71; 98,42</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,49; 92,46</t>
+          <t>90,48; 92,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90,41; 92,44</t>
+          <t>90,44; 92,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>89,73; 91,74</t>
+          <t>89,7; 91,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,57; 92,49</t>
+          <t>90,66; 92,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>92,69; 94,42</t>
+          <t>92,69; 94,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,65; 94,37</t>
+          <t>92,74; 94,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,89; 92,19</t>
+          <t>90,89; 92,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91,89; 93,17</t>
+          <t>91,92; 93,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,64; 92,88</t>
+          <t>91,51; 92,85</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, café, leche, té, chololate, yogurt,...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>437503</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>379327</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>355089</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>394302</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>366479</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>339360</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>831806</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>745807</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>694449</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>422891; 449339</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>362154; 394059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>337610; 369217</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>377812; 406072</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>350848; 380008</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>323223; 351002</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>807962; 851922</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>722293; 766343</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>673446; 714610</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>655826</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>602590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>514472</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>553489</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>554643</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>512227</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1209314</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1157233</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1026699</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>638794; 671566</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>583461; 618714</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>495732; 528520</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>536757; 567387</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>536907; 568086</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>497122; 524610</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1184553; 1230215</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1134019; 1181359</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1005046; 1046923</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>587840</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>628946</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>616705</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>640375</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>673497</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>617783</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1228215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1302443</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1234488</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>574940; 600278</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>613110; 641573</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>601079; 630114</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>625094; 652069</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>661601; 684363</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>603351; 629217</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1207950; 1247285</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1283731; 1319208</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1213367; 1251380</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>478516</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>579130</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>590997</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>475934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>591873</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>614747</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>954449</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1171003</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1205744</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>464367; 489481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>563501; 590041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>574844; 603886</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>462953; 487286</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>580411; 600994</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>601598; 624597</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>934845; 970414</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1152810; 1184625</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1185796; 1222781</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>357882</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>405976</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>440622</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>376738</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>425551</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>477692</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>734620</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>831528</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>918315</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>346918; 366676</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>392846; 415327</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>426672; 452067</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>365087; 384924</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>414347; 433496</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>466827; 485807</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>719062; 747164</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>816700; 844286</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>902247; 932480</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>278321</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>294980</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>316378</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>325369</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>339115</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>360791</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>603690</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>634095</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>677169</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>269324; 284429</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>285270; 301228</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>306445; 322697</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>315256; 331938</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>330301; 344978</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>351776; 367625</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>591860; 612905</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>622714; 643938</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>665266; 687371</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>195769</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>238977</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>244210</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>324740</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>373555</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>391903</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>520508</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>612532</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>636113</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>187552; 202436</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229884; 244434</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>235966; 249214</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>315924; 329474</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>363273; 380295</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>383029; 396595</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>508939; 528632</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>600524; 621499</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>626118; 643835</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>6015</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6048</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2991657</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3129926</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3078474</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3090946</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3324712</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3314502</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6082602</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6454638</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6392976</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2958647; 3022335</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3093794; 3160962</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3041234; 3112948</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3060053; 3122923</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3292647; 3353261</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3284294; 3342354</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6039320; 6124212</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6409528; 6498596</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>6343469; 6435749</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>